--- a/datasheets/analyses.xlsx
+++ b/datasheets/analyses.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oriol/Desktop/beacon-ri-tools-v2/schemas/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oriol/Desktop/beacon-ri-tools-v2/datasheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D615F17-C558-AD42-8451-65ED98DF81A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CBCDCE6-69F9-394E-9229-3688AFF7BC52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="780" windowWidth="17120" windowHeight="16000" xr2:uid="{0FFF1E6D-3B57-3141-A051-C86F3C97C7BF}"/>
+    <workbookView xWindow="5940" yWindow="860" windowWidth="17120" windowHeight="16000" xr2:uid="{0FFF1E6D-3B57-3141-A051-C86F3C97C7BF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
